--- a/src/main/webapp/WEB-INF/template/退供申请单导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/退供申请单导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SKU编号</t>
   </si>
@@ -42,30 +42,18 @@
   <si>
     <t>含税单价</t>
   </si>
-  <si>
-    <t>明治金装倍护系列纸尿裤S82</t>
-  </si>
-  <si>
-    <t>广东服纺供应商</t>
-  </si>
-  <si>
-    <t>华中仓</t>
-  </si>
-  <si>
-    <t>华中销售库</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,29 +62,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF606266"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,9 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,47 +129,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,15 +145,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,44 +184,29 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,13 +215,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5F7FA"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,43 +269,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,49 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,68 +399,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -446,11 +409,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFEBEEF5"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,7 +428,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,22 +467,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +514,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,19 +526,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,128 +547,121 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1035,13 +982,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="9" width="8.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1072,33 +1026,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="34.5" spans="1:9">
-      <c r="A2" s="2">
-        <v>10000000202</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/webapp/WEB-INF/template/退供申请单导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/退供申请单导入模板.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A75AF5-8489-4AE1-96BA-2BCD23BB5224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7819B6A5-2924-4799-9280-C6315A5E3842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="468" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3048" yWindow="1248" windowWidth="17280" windowHeight="10236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -53,30 +58,63 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,24 +122,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -121,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -163,12 +212,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -198,12 +247,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -373,6 +422,11 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -382,51 +436,53 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" customWidth="1"/>
-    <col min="7" max="9" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>